--- a/やることリスト.xlsx
+++ b/やることリスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\DATA\00_作業\01_ゲーム制作\00_Git\Act_OneMonth\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FBEA347-D118-4C95-A960-F564755FB5FC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C402C6D0-F89B-4DEF-93A0-3EFCDBB4B749}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="33">
   <si>
     <t>進捗</t>
     <rPh sb="0" eb="2">
@@ -292,6 +292,16 @@
   </si>
   <si>
     <t>やることリスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キーマウ操作対応</t>
+    <rPh sb="4" eb="6">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>タイオウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -706,7 +716,68 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -985,7 +1056,7 @@
   <dimension ref="B1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1228,10 +1299,18 @@
       </c>
     </row>
     <row r="15" spans="2:9">
-      <c r="B15" s="6"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="8"/>
+      <c r="B15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="16" spans="2:9">
       <c r="B16" s="6"/>
@@ -1269,6 +1348,19 @@
     <mergeCell ref="G2:I2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="C5:C20">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+      <formula>$H$4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>$H$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5:B20">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>$G$7</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B20" xr:uid="{D57336F4-FF89-4853-BF72-95641A164ED7}">
       <formula1>$G$4:$G$7</formula1>

--- a/やることリスト.xlsx
+++ b/やることリスト.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20403"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20404"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\DATA\00_作業\01_ゲーム制作\00_Git\Act_OneMonth\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C402C6D0-F89B-4DEF-93A0-3EFCDBB4B749}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28A28976-3AB3-4EBE-AD3F-63E5613F381B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="1" r:id="rId1"/>
+    <sheet name="仕様変更" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="42">
   <si>
     <t>進捗</t>
     <rPh sb="0" eb="2">
@@ -301,6 +302,144 @@
     </rPh>
     <rPh sb="6" eb="8">
       <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キー配置の改善について</t>
+    <rPh sb="2" eb="4">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カイゼン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>背面ボタン(L,R)を多用すると慣れが必要なゲームになってしまう</t>
+    <rPh sb="0" eb="2">
+      <t>ハイメン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>タヨウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指が忙しい</t>
+    <rPh sb="0" eb="1">
+      <t>ユビ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>イソガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>優先度「最高」の仕様について</t>
+    <rPh sb="0" eb="3">
+      <t>ユウセンド</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サイコウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>演出の変更と集中状態の仕様を変更する</t>
+    <rPh sb="0" eb="2">
+      <t>エンシュツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シュウチュウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>集中状態の仕様変更がキー配置改善につながる</t>
+    <rPh sb="0" eb="2">
+      <t>シュウチュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カイゼン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>集中状態中の仕様変更が必須</t>
+    <rPh sb="0" eb="2">
+      <t>シュウチュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒッス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.トリガーで集中状態に切り替える</t>
+    <rPh sb="7" eb="9">
+      <t>シュウチュウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コライダーも別にしたい</t>
+    <rPh sb="6" eb="7">
+      <t>ベツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -633,7 +772,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -712,11 +851,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -734,36 +876,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1056,7 +1168,7 @@
   <dimension ref="B1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1149,10 +1261,10 @@
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>5</v>
@@ -1216,10 +1328,10 @@
     </row>
     <row r="9" spans="2:9">
       <c r="B9" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>8</v>
@@ -1230,10 +1342,10 @@
     </row>
     <row r="10" spans="2:9">
       <c r="B10" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>9</v>
@@ -1247,7 +1359,7 @@
         <v>21</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>10</v>
@@ -1313,10 +1425,18 @@
       </c>
     </row>
     <row r="16" spans="2:9">
-      <c r="B16" s="6"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="8"/>
+      <c r="B16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="17" spans="2:5">
       <c r="B17" s="6"/>
@@ -1349,10 +1469,10 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="C5:C20">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>$H$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>$H$5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1375,4 +1495,72 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A35C2623-2484-4132-AC3D-4DCE76862C61}">
+  <dimension ref="B2:N6"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData>
+    <row r="2" spans="2:14">
+      <c r="B2" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="I2" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+    </row>
+    <row r="3" spans="2:14">
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14">
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14">
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14">
+      <c r="I6">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="I2:N2"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>
--- a/やることリスト.xlsx
+++ b/やることリスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\DATA\00_作業\01_ゲーム制作\00_Git\Act_OneMonth\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28A28976-3AB3-4EBE-AD3F-63E5613F381B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4788548E-BF92-45EC-8999-57239234CA65}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="60">
   <si>
     <t>進捗</t>
     <rPh sb="0" eb="2">
@@ -442,6 +442,164 @@
       <t>ベツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンボシステム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>視線誘導</t>
+    <rPh sb="0" eb="2">
+      <t>シセン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ユウドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モノトーン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーに集中する</t>
+    <rPh sb="6" eb="8">
+      <t>シュウチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーが見ているところを意識</t>
+    <rPh sb="6" eb="7">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>イシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>もう一度遊びたいと思える演出</t>
+    <rPh sb="2" eb="4">
+      <t>イチド</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>アソ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>エンシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上手くできた俺すげー</t>
+    <rPh sb="0" eb="2">
+      <t>ウマ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オレ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>難しいことをした実感を与える</t>
+    <rPh sb="0" eb="1">
+      <t>ムズカ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジッカン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>アタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵が小粒</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コツブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>急所で倒す敵</t>
+    <rPh sb="0" eb="2">
+      <t>キュウショ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>タオ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一撃で倒すコンセプトのまま</t>
+    <rPh sb="0" eb="2">
+      <t>イチゲキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>タオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>時間停止中の視線誘導</t>
+    <rPh sb="0" eb="2">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>テイシチュウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シセン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ユウドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>切る線がみにくい</t>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>セン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>何を見せたいのか明確に</t>
+    <rPh sb="0" eb="1">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>メイカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>面白さ として、そのゲームが伝えたい "感動"、"心が揺れ動く瞬間" が何であるかを重要視しています。</t>
+  </si>
+  <si>
+    <t>伝えたいものはタイトルによってさまざまですが、ソニックであればコンセプトであるハイスピードとアクションを中心とした</t>
+  </si>
+  <si>
+    <t>爽快さ、達成感を切っ掛けとした感動を生み出すよう、各要素をデザインしています。</t>
+  </si>
+  <si>
+    <t>それによって、ソニックフロンティアでは、走りながら戦う敵、走ってクリアするチャレンジなどを用意しています。</t>
   </si>
 </sst>
 </file>
@@ -1165,10 +1323,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I20"/>
+  <dimension ref="B1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1395,6 +1553,12 @@
       <c r="E13" s="8" t="s">
         <v>20</v>
       </c>
+      <c r="G13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="14" spans="2:9">
       <c r="B14" s="6" t="s">
@@ -1409,6 +1573,12 @@
       <c r="E14" s="8" t="s">
         <v>25</v>
       </c>
+      <c r="G14" t="s">
+        <v>44</v>
+      </c>
+      <c r="I14" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="15" spans="2:9">
       <c r="B15" s="6" t="s">
@@ -1423,6 +1593,12 @@
       <c r="E15" s="8" t="s">
         <v>19</v>
       </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="I15" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="16" spans="2:9">
       <c r="B16" s="6" t="s">
@@ -1437,30 +1613,73 @@
       <c r="E16" s="8" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="2:5">
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9">
       <c r="B17" s="6"/>
       <c r="C17" s="7"/>
-      <c r="D17" s="2"/>
+      <c r="D17" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="E17" s="8"/>
-    </row>
-    <row r="18" spans="2:5">
+      <c r="G17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9">
       <c r="B18" s="6"/>
       <c r="C18" s="7"/>
       <c r="D18" s="2"/>
       <c r="E18" s="8"/>
-    </row>
-    <row r="19" spans="2:5">
+      <c r="G18" t="s">
+        <v>48</v>
+      </c>
+      <c r="I18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9">
       <c r="B19" s="6"/>
       <c r="C19" s="7"/>
       <c r="D19" s="2"/>
       <c r="E19" s="8"/>
-    </row>
-    <row r="20" spans="2:5" ht="18.600000000000001" thickBot="1">
+      <c r="G19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" ht="18.600000000000001" thickBot="1">
       <c r="B20" s="16"/>
       <c r="C20" s="17"/>
       <c r="D20" s="5"/>
       <c r="E20" s="18"/>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="G21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="G22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="G23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="G24" t="s">
+        <v>59</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/やることリスト.xlsx
+++ b/やることリスト.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20404"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20405"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\DATA\00_作業\01_ゲーム制作\00_Git\Act_OneMonth\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\DATA\00_School\01_Game\00_Git\Act_OneMonth\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4788548E-BF92-45EC-8999-57239234CA65}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{526257B6-1B88-49C3-95FF-92DB03C3DB2C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="目次" sheetId="1" r:id="rId1"/>
-    <sheet name="仕様変更" sheetId="2" r:id="rId2"/>
+    <sheet name="やることリスト" sheetId="1" r:id="rId1"/>
+    <sheet name="貰った意見" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="53">
   <si>
     <t>進捗</t>
     <rPh sb="0" eb="2">
@@ -306,137 +306,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>キー配置の改善について</t>
-    <rPh sb="2" eb="4">
-      <t>ハイチ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>カイゼン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>背面ボタン(L,R)を多用すると慣れが必要なゲームになってしまう</t>
-    <rPh sb="0" eb="2">
-      <t>ハイメン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>タヨウ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ナ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>指が忙しい</t>
-    <rPh sb="0" eb="1">
-      <t>ユビ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>イソガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>優先度「最高」の仕様について</t>
-    <rPh sb="0" eb="3">
-      <t>ユウセンド</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>サイコウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>演出の変更と集中状態の仕様を変更する</t>
-    <rPh sb="0" eb="2">
-      <t>エンシュツ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>シュウチュウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>集中状態の仕様変更がキー配置改善につながる</t>
-    <rPh sb="0" eb="2">
-      <t>シュウチュウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ハイチ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>カイゼン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>集中状態中の仕様変更が必須</t>
-    <rPh sb="0" eb="2">
-      <t>シュウチュウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>チュウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ヒッス</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.トリガーで集中状態に切り替える</t>
-    <rPh sb="7" eb="9">
-      <t>シュウチュウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>コライダーも別にしたい</t>
     <rPh sb="6" eb="7">
       <t>ベツ</t>
@@ -448,38 +317,84 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>視線誘導</t>
+    <t>コンセプト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵をまとめて切り払う爽快感</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ハラ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>ソウカイカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>集中状態での視線誘導(敵の協調表示)</t>
     <rPh sb="0" eb="2">
+      <t>シュウチュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
       <t>シセン</t>
     </rPh>
+    <rPh sb="8" eb="10">
+      <t>ユウドウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>キョウチョウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>集中状態での視線誘導()</t>
+    <rPh sb="0" eb="2">
+      <t>シュウチュウ</t>
+    </rPh>
     <rPh sb="2" eb="4">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シセン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
       <t>ユウドウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>モノトーン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プレイヤーに集中する</t>
-    <rPh sb="6" eb="8">
+    <t>集中状態中にどこを見ていいかわかりにくい</t>
+    <rPh sb="0" eb="2">
       <t>シュウチュウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プレイヤーが見ているところを意識</t>
-    <rPh sb="6" eb="7">
+    <rPh sb="2" eb="4">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
       <t>ミ</t>
     </rPh>
-    <rPh sb="14" eb="16">
-      <t>イシキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>もう一度遊びたいと思える演出</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>もう一度遊びたいと思わせる演出が欲しい</t>
     <rPh sb="2" eb="4">
       <t>イチド</t>
     </rPh>
@@ -489,36 +404,36 @@
     <rPh sb="9" eb="10">
       <t>オモ</t>
     </rPh>
-    <rPh sb="12" eb="14">
+    <rPh sb="13" eb="15">
       <t>エンシュツ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>上手くできた俺すげー</t>
-    <rPh sb="0" eb="2">
-      <t>ウマ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>オレ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>難しいことをした実感を与える</t>
+    <rPh sb="16" eb="17">
+      <t>ホ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上手くできた俺すげーがしたい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>難しいことを達成した実感を与える</t>
     <rPh sb="0" eb="1">
       <t>ムズカ</t>
     </rPh>
-    <rPh sb="8" eb="10">
+    <rPh sb="6" eb="8">
+      <t>タッセイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
       <t>ジッカン</t>
     </rPh>
-    <rPh sb="11" eb="12">
+    <rPh sb="13" eb="14">
       <t>アタ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>敵が小粒</t>
+    <t>敵が小粒すぎる</t>
     <rPh sb="0" eb="1">
       <t>テキ</t>
     </rPh>
@@ -528,78 +443,94 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>急所で倒す敵</t>
+    <t>急所に当てて倒す敵が欲しい</t>
     <rPh sb="0" eb="2">
       <t>キュウショ</t>
     </rPh>
     <rPh sb="3" eb="4">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="6" eb="7">
       <t>タオ</t>
     </rPh>
-    <rPh sb="5" eb="6">
+    <rPh sb="8" eb="9">
       <t>テキ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>一撃で倒すコンセプトのまま</t>
-    <rPh sb="0" eb="2">
-      <t>イチゲキ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>タオ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>時間停止中の視線誘導</t>
-    <rPh sb="0" eb="2">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>テイシチュウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>シセン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ユウドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>切る線がみにくい</t>
+    <rPh sb="10" eb="11">
+      <t>ホ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>切る線が見にくい(ガイド)</t>
     <rPh sb="0" eb="1">
       <t>キ</t>
     </rPh>
     <rPh sb="2" eb="3">
       <t>セン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>何を見せたいのか明確に</t>
-    <rPh sb="0" eb="1">
-      <t>ナニ</t>
+    <rPh sb="4" eb="5">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なにを見せたいのか正確にしてほしい</t>
+    <rPh sb="3" eb="4">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セイカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵を倒していくゲームとしての遊べる要素を増やしてほしい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>見栄えややりたいことに対する演出の強化をするべき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>操作難しい</t>
+    <rPh sb="0" eb="2">
+      <t>ソウサ</t>
     </rPh>
     <rPh sb="2" eb="3">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>メイカク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>面白さ として、そのゲームが伝えたい "感動"、"心が揺れ動く瞬間" が何であるかを重要視しています。</t>
-  </si>
-  <si>
-    <t>伝えたいものはタイトルによってさまざまですが、ソニックであればコンセプトであるハイスピードとアクションを中心とした</t>
-  </si>
-  <si>
-    <t>爽快さ、達成感を切っ掛けとした感動を生み出すよう、各要素をデザインしています。</t>
-  </si>
-  <si>
-    <t>それによって、ソニックフロンティアでは、走りながら戦う敵、走ってクリアするチャレンジなどを用意しています。</t>
+      <t>ムズカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>連続攻撃の回数制限</t>
+    <rPh sb="0" eb="2">
+      <t>レンゾク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カイスウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セイゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モデルしっかり作ってほしい</t>
+    <rPh sb="7" eb="8">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チュートリアルをもっとしっかり作ってほしい</t>
+    <rPh sb="15" eb="16">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -630,7 +561,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -926,11 +857,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1009,8 +1026,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1029,21 +1070,21 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1323,10 +1364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I24"/>
+  <dimension ref="B1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13:I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1484,7 +1525,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="2:9">
+    <row r="9" spans="2:9" ht="18.600000000000001" thickBot="1">
       <c r="B9" s="6" t="s">
         <v>22</v>
       </c>
@@ -1498,7 +1539,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="2:9">
+    <row r="10" spans="2:9" ht="18.600000000000001" thickBot="1">
       <c r="B10" s="6" t="s">
         <v>22</v>
       </c>
@@ -1511,8 +1552,13 @@
       <c r="E10" s="8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="2:9">
+      <c r="G10" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="39"/>
+      <c r="I10" s="40"/>
+    </row>
+    <row r="11" spans="2:9" ht="18.600000000000001" thickTop="1">
       <c r="B11" s="6" t="s">
         <v>21</v>
       </c>
@@ -1525,8 +1571,13 @@
       <c r="E11" s="8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" spans="2:9">
+      <c r="G11" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="33"/>
+      <c r="I11" s="34"/>
+    </row>
+    <row r="12" spans="2:9" ht="18.600000000000001" thickBot="1">
       <c r="B12" s="6" t="s">
         <v>21</v>
       </c>
@@ -1539,6 +1590,9 @@
       <c r="E12" s="8" t="s">
         <v>20</v>
       </c>
+      <c r="G12" s="35"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="37"/>
     </row>
     <row r="13" spans="2:9">
       <c r="B13" s="6" t="s">
@@ -1553,12 +1607,6 @@
       <c r="E13" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G13" t="s">
-        <v>43</v>
-      </c>
-      <c r="I13" t="s">
-        <v>50</v>
-      </c>
     </row>
     <row r="14" spans="2:9">
       <c r="B14" s="6" t="s">
@@ -1573,12 +1621,6 @@
       <c r="E14" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G14" t="s">
-        <v>44</v>
-      </c>
-      <c r="I14" t="s">
-        <v>51</v>
-      </c>
     </row>
     <row r="15" spans="2:9">
       <c r="B15" s="6" t="s">
@@ -1593,12 +1635,6 @@
       <c r="E15" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G15" t="s">
-        <v>45</v>
-      </c>
-      <c r="I15" t="s">
-        <v>52</v>
-      </c>
     </row>
     <row r="16" spans="2:9">
       <c r="B16" s="6" t="s">
@@ -1608,91 +1644,56 @@
         <v>16</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G16" t="s">
-        <v>46</v>
-      </c>
-      <c r="I16" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9">
+    </row>
+    <row r="17" spans="2:5">
       <c r="B17" s="6"/>
       <c r="C17" s="7"/>
       <c r="D17" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E17" s="8"/>
-      <c r="G17" t="s">
-        <v>47</v>
-      </c>
-      <c r="I17" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9">
+    </row>
+    <row r="18" spans="2:5">
       <c r="B18" s="6"/>
       <c r="C18" s="7"/>
-      <c r="D18" s="2"/>
+      <c r="D18" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="E18" s="8"/>
-      <c r="G18" t="s">
-        <v>48</v>
-      </c>
-      <c r="I18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9">
+    </row>
+    <row r="19" spans="2:5">
       <c r="B19" s="6"/>
       <c r="C19" s="7"/>
-      <c r="D19" s="2"/>
+      <c r="D19" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="E19" s="8"/>
-      <c r="G19" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" ht="18.600000000000001" thickBot="1">
+    </row>
+    <row r="20" spans="2:5" ht="18.600000000000001" thickBot="1">
       <c r="B20" s="16"/>
       <c r="C20" s="17"/>
       <c r="D20" s="5"/>
       <c r="E20" s="18"/>
     </row>
-    <row r="21" spans="2:9">
-      <c r="G21" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9">
-      <c r="G22" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9">
-      <c r="G23" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9">
-      <c r="G24" t="s">
-        <v>59</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="B2:D3"/>
     <mergeCell ref="G2:I2"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G11:I12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="C5:C20">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>$H$5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>$H$4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>$H$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:B20">
@@ -1717,69 +1718,90 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A35C2623-2484-4132-AC3D-4DCE76862C61}">
-  <dimension ref="B2:N6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9822F42-A6F8-4546-B7EA-0E5EE17AD012}">
+  <dimension ref="B2:B15"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="3.69921875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:14">
-      <c r="B2" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="I2" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-    </row>
-    <row r="3" spans="2:14">
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="2:14">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14">
-      <c r="I6">
-        <v>2</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="I2:N2"/>
-  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/やることリスト.xlsx
+++ b/やることリスト.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\DATA\00_School\01_Game\00_Git\Act_OneMonth\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{526257B6-1B88-49C3-95FF-92DB03C3DB2C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{907D7606-3930-4B3F-8AA3-6EFF8FE3DCB0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="やることリスト" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="53">
   <si>
     <t>進捗</t>
     <rPh sb="0" eb="2">
@@ -362,22 +362,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>集中状態での視線誘導()</t>
-    <rPh sb="0" eb="2">
-      <t>シュウチュウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>シセン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ユウドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>集中状態中にどこを見ていいかわかりにくい</t>
     <rPh sb="0" eb="2">
       <t>シュウチュウ</t>
@@ -529,6 +513,28 @@
     <t>チュートリアルをもっとしっかり作ってほしい</t>
     <rPh sb="15" eb="16">
       <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>集中状態での視線誘導(背景を暗くする)</t>
+    <rPh sb="0" eb="2">
+      <t>シュウチュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シセン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ユウドウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ハイケイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>クラ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1026,6 +1032,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1042,15 +1057,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1364,10 +1370,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I20"/>
+  <dimension ref="B1:I50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13:I19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1399,7 +1405,7 @@
       <c r="C3" s="27"/>
       <c r="D3" s="28"/>
       <c r="E3" s="22">
-        <f>COUNTIF(B5:B20, "完了") / COUNTA(B5:B20)</f>
+        <f>COUNTIF(B5:B50, "完了") / COUNTA(B5:B50)</f>
         <v>0</v>
       </c>
       <c r="G3" s="13" t="s">
@@ -1460,10 +1466,10 @@
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>5</v>
@@ -1509,7 +1515,7 @@
         <v>21</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>7</v>
@@ -1527,10 +1533,10 @@
     </row>
     <row r="9" spans="2:9" ht="18.600000000000001" thickBot="1">
       <c r="B9" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>8</v>
@@ -1541,10 +1547,10 @@
     </row>
     <row r="10" spans="2:9" ht="18.600000000000001" thickBot="1">
       <c r="B10" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>9</v>
@@ -1552,11 +1558,11 @@
       <c r="E10" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="38" t="s">
+      <c r="G10" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="H10" s="39"/>
-      <c r="I10" s="40"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="34"/>
     </row>
     <row r="11" spans="2:9" ht="18.600000000000001" thickTop="1">
       <c r="B11" s="6" t="s">
@@ -1571,11 +1577,11 @@
       <c r="E11" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="32" t="s">
+      <c r="G11" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="H11" s="33"/>
-      <c r="I11" s="34"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="37"/>
     </row>
     <row r="12" spans="2:9" ht="18.600000000000001" thickBot="1">
       <c r="B12" s="6" t="s">
@@ -1590,9 +1596,9 @@
       <c r="E12" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="35"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="37"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="40"/>
     </row>
     <row r="13" spans="2:9">
       <c r="B13" s="6" t="s">
@@ -1651,34 +1657,232 @@
       </c>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="6"/>
-      <c r="C17" s="7"/>
+      <c r="B17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="D17" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E17" s="8"/>
+      <c r="E17" s="8" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="6"/>
-      <c r="C18" s="7"/>
+      <c r="B18" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D18" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="8"/>
+      <c r="E18" s="8" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="6"/>
-      <c r="C19" s="7"/>
+      <c r="B19" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D19" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" s="8"/>
-    </row>
-    <row r="20" spans="2:5" ht="18.600000000000001" thickBot="1">
-      <c r="B20" s="16"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="18"/>
+        <v>52</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="6"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="8"/>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="6"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="8"/>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="6"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="8"/>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" s="6"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="8"/>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" s="6"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="8"/>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" s="6"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="8"/>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" s="6"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="8"/>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" s="6"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="8"/>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28" s="6"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="8"/>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29" s="6"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="8"/>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30" s="6"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="8"/>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="B31" s="6"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="8"/>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="B32" s="6"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="8"/>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33" s="6"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="8"/>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34" s="6"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="8"/>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="B35" s="6"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="8"/>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="B36" s="6"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="8"/>
+    </row>
+    <row r="37" spans="2:5">
+      <c r="B37" s="6"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="8"/>
+    </row>
+    <row r="38" spans="2:5">
+      <c r="B38" s="6"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="8"/>
+    </row>
+    <row r="39" spans="2:5">
+      <c r="B39" s="6"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="8"/>
+    </row>
+    <row r="40" spans="2:5">
+      <c r="B40" s="6"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="8"/>
+    </row>
+    <row r="41" spans="2:5">
+      <c r="B41" s="6"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="8"/>
+    </row>
+    <row r="42" spans="2:5">
+      <c r="B42" s="6"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="8"/>
+    </row>
+    <row r="43" spans="2:5">
+      <c r="B43" s="6"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="8"/>
+    </row>
+    <row r="44" spans="2:5">
+      <c r="B44" s="6"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="8"/>
+    </row>
+    <row r="45" spans="2:5">
+      <c r="B45" s="6"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="8"/>
+    </row>
+    <row r="46" spans="2:5">
+      <c r="B46" s="6"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="8"/>
+    </row>
+    <row r="47" spans="2:5">
+      <c r="B47" s="6"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="8"/>
+    </row>
+    <row r="48" spans="2:5">
+      <c r="B48" s="6"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="8"/>
+    </row>
+    <row r="49" spans="2:5">
+      <c r="B49" s="6"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="8"/>
+    </row>
+    <row r="50" spans="2:5" ht="18.600000000000001" thickBot="1">
+      <c r="B50" s="16"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1688,7 +1892,7 @@
     <mergeCell ref="G11:I12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="C5:C20">
+  <conditionalFormatting sqref="C5:C50">
     <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>$H$5</formula>
     </cfRule>
@@ -1696,19 +1900,19 @@
       <formula>$H$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5:B20">
+  <conditionalFormatting sqref="B5:B50">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>$G$7</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B20" xr:uid="{D57336F4-FF89-4853-BF72-95641A164ED7}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B50" xr:uid="{D57336F4-FF89-4853-BF72-95641A164ED7}">
       <formula1>$G$4:$G$7</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C20" xr:uid="{B66B4426-7D5E-4291-98E3-6E362CFCE609}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C50" xr:uid="{B66B4426-7D5E-4291-98E3-6E362CFCE609}">
       <formula1>$H$4:$H$8</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E20" xr:uid="{C5B3C0BB-5FAA-445B-82DF-B0C965CBFFFF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E50" xr:uid="{C5B3C0BB-5FAA-445B-82DF-B0C965CBFFFF}">
       <formula1>$I$4:$I$8</formula1>
     </dataValidation>
   </dataValidations>
@@ -1721,7 +1925,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9822F42-A6F8-4546-B7EA-0E5EE17AD012}">
   <dimension ref="B2:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -1732,72 +1936,72 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/やることリスト.xlsx
+++ b/やることリスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\DATA\00_School\01_Game\00_Git\Act_OneMonth\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{907D7606-3930-4B3F-8AA3-6EFF8FE3DCB0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B40747D1-6887-40FF-809F-02CBAD95540A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1373,7 +1373,7 @@
   <dimension ref="B1:I50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1406,7 +1406,7 @@
       <c r="D3" s="28"/>
       <c r="E3" s="22">
         <f>COUNTIF(B5:B50, "完了") / COUNTA(B5:B50)</f>
-        <v>0</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="G3" s="13" t="s">
         <v>0</v>
@@ -1512,7 +1512,7 @@
     </row>
     <row r="8" spans="2:9" ht="18.600000000000001" thickBot="1">
       <c r="B8" s="6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>13</v>

--- a/やることリスト.xlsx
+++ b/やることリスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\DATA\00_School\01_Game\00_Git\Act_OneMonth\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B40747D1-6887-40FF-809F-02CBAD95540A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{760A86B3-C27B-4DB2-834F-CB37448647A2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1373,7 +1373,7 @@
   <dimension ref="B1:I50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1686,7 +1686,7 @@
     </row>
     <row r="19" spans="2:5">
       <c r="B19" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>14</v>

--- a/やることリスト.xlsx
+++ b/やることリスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\DATA\00_School\01_Game\00_Git\Act_OneMonth\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{760A86B3-C27B-4DB2-834F-CB37448647A2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D7F4BEE-688B-4D7D-8001-3236F7321BDE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -321,22 +321,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>敵をまとめて切り払う爽快感</t>
-    <rPh sb="0" eb="1">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ハラ</t>
-    </rPh>
-    <rPh sb="10" eb="13">
-      <t>ソウカイカン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>集中状態での視線誘導(敵の協調表示)</t>
     <rPh sb="0" eb="2">
       <t>シュウチュウ</t>
@@ -535,6 +519,13 @@
     </rPh>
     <rPh sb="14" eb="15">
       <t>クラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>気持ちよくなりたい！</t>
+    <rPh sb="0" eb="2">
+      <t>キモ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -543,7 +534,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -553,6 +544,14 @@
     </font>
     <font>
       <sz val="6"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
       <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
@@ -1041,22 +1040,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1373,7 +1372,7 @@
   <dimension ref="B1:I50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1578,7 +1577,7 @@
         <v>19</v>
       </c>
       <c r="G11" s="35" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="H11" s="36"/>
       <c r="I11" s="37"/>
@@ -1678,7 +1677,7 @@
         <v>14</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>18</v>
@@ -1692,7 +1691,7 @@
         <v>14</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>18</v>
@@ -1936,72 +1935,72 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/やることリスト.xlsx
+++ b/やることリスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\DATA\00_School\01_Game\00_Git\Act_OneMonth\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D7F4BEE-688B-4D7D-8001-3236F7321BDE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C5170D-73D3-496A-85D0-CE2103052D97}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1372,7 +1372,7 @@
   <dimension ref="B1:I50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1405,7 +1405,7 @@
       <c r="D3" s="28"/>
       <c r="E3" s="22">
         <f>COUNTIF(B5:B50, "完了") / COUNTA(B5:B50)</f>
-        <v>6.6666666666666666E-2</v>
+        <v>0.13333333333333333</v>
       </c>
       <c r="G3" s="13" t="s">
         <v>0</v>
@@ -1685,7 +1685,7 @@
     </row>
     <row r="19" spans="2:5">
       <c r="B19" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>14</v>

--- a/やることリスト.xlsx
+++ b/やることリスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\DATA\00_School\01_Game\00_Git\Act_OneMonth\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C5170D-73D3-496A-85D0-CE2103052D97}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4CB6B9E-DB3B-406B-9384-2A3C83D5631F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1372,7 +1372,7 @@
   <dimension ref="B1:I50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1671,7 +1671,7 @@
     </row>
     <row r="18" spans="2:5">
       <c r="B18" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>14</v>

--- a/やることリスト.xlsx
+++ b/やることリスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\DATA\00_School\01_Game\00_Git\Act_OneMonth\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4CB6B9E-DB3B-406B-9384-2A3C83D5631F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB98895-7F5D-4944-9B2D-0BAA01AC8B17}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1372,7 +1372,7 @@
   <dimension ref="B1:I50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1405,7 +1405,7 @@
       <c r="D3" s="28"/>
       <c r="E3" s="22">
         <f>COUNTIF(B5:B50, "完了") / COUNTA(B5:B50)</f>
-        <v>0.13333333333333333</v>
+        <v>0.2</v>
       </c>
       <c r="G3" s="13" t="s">
         <v>0</v>
@@ -1671,7 +1671,7 @@
     </row>
     <row r="18" spans="2:5">
       <c r="B18" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>14</v>

--- a/やることリスト.xlsx
+++ b/やることリスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\DATA\00_School\01_Game\00_Git\Act_OneMonth\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB98895-7F5D-4944-9B2D-0BAA01AC8B17}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF800F9-CAF4-4522-BF98-DB5CE14A9168}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="55">
   <si>
     <t>進捗</t>
     <rPh sb="0" eb="2">
@@ -526,6 +526,53 @@
     <t>気持ちよくなりたい！</t>
     <rPh sb="0" eb="2">
       <t>キモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メモ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">操作関連
+・移動 : 左スティック
+・状態切り替え(集中/通常) : ボタン
+・ダッシュ先カーソル : 右スティック
+・ダッシュ : ボタン
+・ジャンプ : ボタン
+</t>
+    <rPh sb="0" eb="2">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>シュウチュウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>ミギ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -566,7 +613,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -948,11 +995,73 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1004,6 +1113,24 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1056,6 +1183,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1372,7 +1520,7 @@
   <dimension ref="B1:I50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="G16" sqref="G16:I50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1385,24 +1533,24 @@
   <sheetData>
     <row r="1" spans="2:9" ht="18.600000000000001" thickBot="1"/>
     <row r="2" spans="2:9" ht="18.600000000000001" thickBot="1">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="25"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="31"/>
       <c r="E2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="G2" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="30"/>
-      <c r="I2" s="31"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="37"/>
     </row>
     <row r="3" spans="2:9" ht="18.600000000000001" thickBot="1">
-      <c r="B3" s="26"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="28"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="34"/>
       <c r="E3" s="22">
         <f>COUNTIF(B5:B50, "完了") / COUNTA(B5:B50)</f>
         <v>0.2</v>
@@ -1465,7 +1613,7 @@
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>15</v>
@@ -1532,7 +1680,7 @@
     </row>
     <row r="9" spans="2:9" ht="18.600000000000001" thickBot="1">
       <c r="B9" s="6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>15</v>
@@ -1546,7 +1694,7 @@
     </row>
     <row r="10" spans="2:9" ht="18.600000000000001" thickBot="1">
       <c r="B10" s="6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>15</v>
@@ -1557,15 +1705,15 @@
       <c r="E10" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="32" t="s">
+      <c r="G10" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="H10" s="33"/>
-      <c r="I10" s="34"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="40"/>
     </row>
     <row r="11" spans="2:9" ht="18.600000000000001" thickTop="1">
       <c r="B11" s="6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>14</v>
@@ -1576,11 +1724,11 @@
       <c r="E11" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="35" t="s">
+      <c r="G11" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="H11" s="36"/>
-      <c r="I11" s="37"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="43"/>
     </row>
     <row r="12" spans="2:9" ht="18.600000000000001" thickBot="1">
       <c r="B12" s="6" t="s">
@@ -1595,11 +1743,11 @@
       <c r="E12" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="38"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="40"/>
-    </row>
-    <row r="13" spans="2:9">
+      <c r="G12" s="44"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="46"/>
+    </row>
+    <row r="13" spans="2:9" ht="18.600000000000001" thickBot="1">
       <c r="B13" s="6" t="s">
         <v>21</v>
       </c>
@@ -1626,8 +1774,13 @@
       <c r="E14" s="8" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="2:9">
+      <c r="G14" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="H14" s="49"/>
+      <c r="I14" s="50"/>
+    </row>
+    <row r="15" spans="2:9" ht="18.600000000000001" thickBot="1">
       <c r="B15" s="6" t="s">
         <v>21</v>
       </c>
@@ -1640,8 +1793,11 @@
       <c r="E15" s="8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="16" spans="2:9">
+      <c r="G15" s="51"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="53"/>
+    </row>
+    <row r="16" spans="2:9" ht="18.600000000000001" thickTop="1">
       <c r="B16" s="6" t="s">
         <v>21</v>
       </c>
@@ -1654,8 +1810,13 @@
       <c r="E16" s="8" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="2:5">
+      <c r="G16" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="H16" s="24"/>
+      <c r="I16" s="25"/>
+    </row>
+    <row r="17" spans="2:9">
       <c r="B17" s="6" t="s">
         <v>21</v>
       </c>
@@ -1668,8 +1829,11 @@
       <c r="E17" s="8" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="18" spans="2:5">
+      <c r="G17" s="23"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="25"/>
+    </row>
+    <row r="18" spans="2:9">
       <c r="B18" s="6" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1846,11 @@
       <c r="E18" s="8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="2:5">
+      <c r="G18" s="23"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="25"/>
+    </row>
+    <row r="19" spans="2:9">
       <c r="B19" s="6" t="s">
         <v>24</v>
       </c>
@@ -1696,199 +1863,297 @@
       <c r="E19" s="8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="2:5">
+      <c r="G19" s="23"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="25"/>
+    </row>
+    <row r="20" spans="2:9">
       <c r="B20" s="6"/>
       <c r="C20" s="7"/>
       <c r="D20" s="2"/>
       <c r="E20" s="8"/>
-    </row>
-    <row r="21" spans="2:5">
+      <c r="G20" s="23"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="25"/>
+    </row>
+    <row r="21" spans="2:9">
       <c r="B21" s="6"/>
       <c r="C21" s="7"/>
       <c r="D21" s="2"/>
       <c r="E21" s="8"/>
-    </row>
-    <row r="22" spans="2:5">
+      <c r="G21" s="23"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="25"/>
+    </row>
+    <row r="22" spans="2:9">
       <c r="B22" s="6"/>
       <c r="C22" s="7"/>
       <c r="D22" s="2"/>
       <c r="E22" s="8"/>
-    </row>
-    <row r="23" spans="2:5">
+      <c r="G22" s="23"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="25"/>
+    </row>
+    <row r="23" spans="2:9">
       <c r="B23" s="6"/>
       <c r="C23" s="7"/>
       <c r="D23" s="2"/>
       <c r="E23" s="8"/>
-    </row>
-    <row r="24" spans="2:5">
+      <c r="G23" s="23"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="25"/>
+    </row>
+    <row r="24" spans="2:9">
       <c r="B24" s="6"/>
       <c r="C24" s="7"/>
       <c r="D24" s="2"/>
       <c r="E24" s="8"/>
-    </row>
-    <row r="25" spans="2:5">
+      <c r="G24" s="23"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="25"/>
+    </row>
+    <row r="25" spans="2:9">
       <c r="B25" s="6"/>
       <c r="C25" s="7"/>
       <c r="D25" s="2"/>
       <c r="E25" s="8"/>
-    </row>
-    <row r="26" spans="2:5">
+      <c r="G25" s="23"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="25"/>
+    </row>
+    <row r="26" spans="2:9">
       <c r="B26" s="6"/>
       <c r="C26" s="7"/>
       <c r="D26" s="2"/>
       <c r="E26" s="8"/>
-    </row>
-    <row r="27" spans="2:5">
+      <c r="G26" s="23"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="25"/>
+    </row>
+    <row r="27" spans="2:9">
       <c r="B27" s="6"/>
       <c r="C27" s="7"/>
       <c r="D27" s="2"/>
       <c r="E27" s="8"/>
-    </row>
-    <row r="28" spans="2:5">
+      <c r="G27" s="23"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="25"/>
+    </row>
+    <row r="28" spans="2:9">
       <c r="B28" s="6"/>
       <c r="C28" s="7"/>
       <c r="D28" s="2"/>
       <c r="E28" s="8"/>
-    </row>
-    <row r="29" spans="2:5">
+      <c r="G28" s="23"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="25"/>
+    </row>
+    <row r="29" spans="2:9">
       <c r="B29" s="6"/>
       <c r="C29" s="7"/>
       <c r="D29" s="2"/>
       <c r="E29" s="8"/>
-    </row>
-    <row r="30" spans="2:5">
+      <c r="G29" s="23"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="25"/>
+    </row>
+    <row r="30" spans="2:9">
       <c r="B30" s="6"/>
       <c r="C30" s="7"/>
       <c r="D30" s="2"/>
       <c r="E30" s="8"/>
-    </row>
-    <row r="31" spans="2:5">
+      <c r="G30" s="23"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="25"/>
+    </row>
+    <row r="31" spans="2:9">
       <c r="B31" s="6"/>
       <c r="C31" s="7"/>
       <c r="D31" s="2"/>
       <c r="E31" s="8"/>
-    </row>
-    <row r="32" spans="2:5">
+      <c r="G31" s="23"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="25"/>
+    </row>
+    <row r="32" spans="2:9">
       <c r="B32" s="6"/>
       <c r="C32" s="7"/>
       <c r="D32" s="2"/>
       <c r="E32" s="8"/>
-    </row>
-    <row r="33" spans="2:5">
+      <c r="G32" s="23"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="25"/>
+    </row>
+    <row r="33" spans="2:9">
       <c r="B33" s="6"/>
       <c r="C33" s="7"/>
       <c r="D33" s="2"/>
       <c r="E33" s="8"/>
-    </row>
-    <row r="34" spans="2:5">
+      <c r="G33" s="23"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="25"/>
+    </row>
+    <row r="34" spans="2:9">
       <c r="B34" s="6"/>
       <c r="C34" s="7"/>
       <c r="D34" s="2"/>
       <c r="E34" s="8"/>
-    </row>
-    <row r="35" spans="2:5">
+      <c r="G34" s="23"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="25"/>
+    </row>
+    <row r="35" spans="2:9">
       <c r="B35" s="6"/>
       <c r="C35" s="7"/>
       <c r="D35" s="2"/>
       <c r="E35" s="8"/>
-    </row>
-    <row r="36" spans="2:5">
+      <c r="G35" s="23"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="25"/>
+    </row>
+    <row r="36" spans="2:9">
       <c r="B36" s="6"/>
       <c r="C36" s="7"/>
       <c r="D36" s="2"/>
       <c r="E36" s="8"/>
-    </row>
-    <row r="37" spans="2:5">
+      <c r="G36" s="23"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="25"/>
+    </row>
+    <row r="37" spans="2:9">
       <c r="B37" s="6"/>
       <c r="C37" s="7"/>
       <c r="D37" s="2"/>
       <c r="E37" s="8"/>
-    </row>
-    <row r="38" spans="2:5">
+      <c r="G37" s="23"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="25"/>
+    </row>
+    <row r="38" spans="2:9">
       <c r="B38" s="6"/>
       <c r="C38" s="7"/>
       <c r="D38" s="2"/>
       <c r="E38" s="8"/>
-    </row>
-    <row r="39" spans="2:5">
+      <c r="G38" s="23"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="25"/>
+    </row>
+    <row r="39" spans="2:9">
       <c r="B39" s="6"/>
       <c r="C39" s="7"/>
       <c r="D39" s="2"/>
       <c r="E39" s="8"/>
-    </row>
-    <row r="40" spans="2:5">
+      <c r="G39" s="23"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="25"/>
+    </row>
+    <row r="40" spans="2:9">
       <c r="B40" s="6"/>
       <c r="C40" s="7"/>
       <c r="D40" s="2"/>
       <c r="E40" s="8"/>
-    </row>
-    <row r="41" spans="2:5">
+      <c r="G40" s="23"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="25"/>
+    </row>
+    <row r="41" spans="2:9">
       <c r="B41" s="6"/>
       <c r="C41" s="7"/>
       <c r="D41" s="2"/>
       <c r="E41" s="8"/>
-    </row>
-    <row r="42" spans="2:5">
+      <c r="G41" s="23"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="25"/>
+    </row>
+    <row r="42" spans="2:9">
       <c r="B42" s="6"/>
       <c r="C42" s="7"/>
       <c r="D42" s="2"/>
       <c r="E42" s="8"/>
-    </row>
-    <row r="43" spans="2:5">
+      <c r="G42" s="23"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="25"/>
+    </row>
+    <row r="43" spans="2:9">
       <c r="B43" s="6"/>
       <c r="C43" s="7"/>
       <c r="D43" s="2"/>
       <c r="E43" s="8"/>
-    </row>
-    <row r="44" spans="2:5">
+      <c r="G43" s="23"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="25"/>
+    </row>
+    <row r="44" spans="2:9">
       <c r="B44" s="6"/>
       <c r="C44" s="7"/>
       <c r="D44" s="2"/>
       <c r="E44" s="8"/>
-    </row>
-    <row r="45" spans="2:5">
+      <c r="G44" s="23"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="25"/>
+    </row>
+    <row r="45" spans="2:9">
       <c r="B45" s="6"/>
       <c r="C45" s="7"/>
       <c r="D45" s="2"/>
       <c r="E45" s="8"/>
-    </row>
-    <row r="46" spans="2:5">
+      <c r="G45" s="23"/>
+      <c r="H45" s="24"/>
+      <c r="I45" s="25"/>
+    </row>
+    <row r="46" spans="2:9">
       <c r="B46" s="6"/>
       <c r="C46" s="7"/>
       <c r="D46" s="2"/>
       <c r="E46" s="8"/>
-    </row>
-    <row r="47" spans="2:5">
+      <c r="G46" s="23"/>
+      <c r="H46" s="24"/>
+      <c r="I46" s="25"/>
+    </row>
+    <row r="47" spans="2:9">
       <c r="B47" s="6"/>
       <c r="C47" s="7"/>
       <c r="D47" s="2"/>
       <c r="E47" s="8"/>
-    </row>
-    <row r="48" spans="2:5">
+      <c r="G47" s="23"/>
+      <c r="H47" s="24"/>
+      <c r="I47" s="25"/>
+    </row>
+    <row r="48" spans="2:9">
       <c r="B48" s="6"/>
       <c r="C48" s="7"/>
       <c r="D48" s="2"/>
       <c r="E48" s="8"/>
-    </row>
-    <row r="49" spans="2:5">
+      <c r="G48" s="23"/>
+      <c r="H48" s="24"/>
+      <c r="I48" s="25"/>
+    </row>
+    <row r="49" spans="2:9">
       <c r="B49" s="6"/>
       <c r="C49" s="7"/>
       <c r="D49" s="2"/>
       <c r="E49" s="8"/>
-    </row>
-    <row r="50" spans="2:5" ht="18.600000000000001" thickBot="1">
+      <c r="G49" s="23"/>
+      <c r="H49" s="24"/>
+      <c r="I49" s="25"/>
+    </row>
+    <row r="50" spans="2:9" ht="18.600000000000001" thickBot="1">
       <c r="B50" s="16"/>
       <c r="C50" s="17"/>
       <c r="D50" s="5"/>
       <c r="E50" s="18"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="27"/>
+      <c r="I50" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
+    <mergeCell ref="G16:I50"/>
     <mergeCell ref="B2:D3"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="G10:I10"/>
     <mergeCell ref="G11:I12"/>
+    <mergeCell ref="G14:I15"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="C5:C50">

--- a/やることリスト.xlsx
+++ b/やることリスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\DATA\00_School\01_Game\00_Git\Act_OneMonth\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF800F9-CAF4-4522-BF98-DB5CE14A9168}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB4AB90-E86A-4712-B89D-5AC1D1D70B25}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -540,6 +540,10 @@
 ・ダッシュ先カーソル : 右スティック
 ・ダッシュ : ボタン
 ・ジャンプ : ボタン
+集中状態での挙動
+・ダッシュ先カーソルを出す
+・ボタンを押すとプレイヤーとカーソルを繋ぐ軌跡
+・制限回数ボタンを押すとプレイヤーが移動しながら敵を倒す
 </t>
     <rPh sb="0" eb="2">
       <t>ソウサ</t>
@@ -573,6 +577,48 @@
     </rPh>
     <rPh sb="52" eb="53">
       <t>ミギ</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>シュウチュウ</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t>キョドウ</t>
+    </rPh>
+    <rPh sb="98" eb="99">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="104" eb="105">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="112" eb="113">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="126" eb="127">
+      <t>ツナ</t>
+    </rPh>
+    <rPh sb="128" eb="130">
+      <t>キセキ</t>
+    </rPh>
+    <rPh sb="132" eb="134">
+      <t>セイゲン</t>
+    </rPh>
+    <rPh sb="134" eb="136">
+      <t>カイスウ</t>
+    </rPh>
+    <rPh sb="140" eb="141">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="149" eb="151">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="155" eb="156">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="157" eb="158">
+      <t>タオ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1114,7 +1160,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1122,6 +1168,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1184,9 +1233,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1520,7 +1566,7 @@
   <dimension ref="B1:I50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16:I50"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1533,24 +1579,24 @@
   <sheetData>
     <row r="1" spans="2:9" ht="18.600000000000001" thickBot="1"/>
     <row r="2" spans="2:9" ht="18.600000000000001" thickBot="1">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="32"/>
       <c r="E2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="35" t="s">
+      <c r="G2" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="36"/>
-      <c r="I2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="38"/>
     </row>
     <row r="3" spans="2:9" ht="18.600000000000001" thickBot="1">
-      <c r="B3" s="32"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="34"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="35"/>
       <c r="E3" s="22">
         <f>COUNTIF(B5:B50, "完了") / COUNTA(B5:B50)</f>
         <v>0.2</v>
@@ -1705,11 +1751,11 @@
       <c r="E10" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="38" t="s">
+      <c r="G10" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="H10" s="39"/>
-      <c r="I10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="41"/>
     </row>
     <row r="11" spans="2:9" ht="18.600000000000001" thickTop="1">
       <c r="B11" s="6" t="s">
@@ -1724,11 +1770,11 @@
       <c r="E11" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="41" t="s">
+      <c r="G11" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="H11" s="42"/>
-      <c r="I11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="44"/>
     </row>
     <row r="12" spans="2:9" ht="18.600000000000001" thickBot="1">
       <c r="B12" s="6" t="s">
@@ -1743,9 +1789,9 @@
       <c r="E12" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="44"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="46"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="47"/>
     </row>
     <row r="13" spans="2:9" ht="18.600000000000001" thickBot="1">
       <c r="B13" s="6" t="s">
@@ -1810,7 +1856,7 @@
       <c r="E16" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="47" t="s">
+      <c r="G16" s="23" t="s">
         <v>54</v>
       </c>
       <c r="H16" s="24"/>
@@ -1829,7 +1875,7 @@
       <c r="E17" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G17" s="23"/>
+      <c r="G17" s="26"/>
       <c r="H17" s="24"/>
       <c r="I17" s="25"/>
     </row>
@@ -1846,7 +1892,7 @@
       <c r="E18" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G18" s="23"/>
+      <c r="G18" s="26"/>
       <c r="H18" s="24"/>
       <c r="I18" s="25"/>
     </row>
@@ -1863,7 +1909,7 @@
       <c r="E19" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G19" s="23"/>
+      <c r="G19" s="26"/>
       <c r="H19" s="24"/>
       <c r="I19" s="25"/>
     </row>
@@ -1872,7 +1918,7 @@
       <c r="C20" s="7"/>
       <c r="D20" s="2"/>
       <c r="E20" s="8"/>
-      <c r="G20" s="23"/>
+      <c r="G20" s="26"/>
       <c r="H20" s="24"/>
       <c r="I20" s="25"/>
     </row>
@@ -1881,7 +1927,7 @@
       <c r="C21" s="7"/>
       <c r="D21" s="2"/>
       <c r="E21" s="8"/>
-      <c r="G21" s="23"/>
+      <c r="G21" s="26"/>
       <c r="H21" s="24"/>
       <c r="I21" s="25"/>
     </row>
@@ -1890,7 +1936,7 @@
       <c r="C22" s="7"/>
       <c r="D22" s="2"/>
       <c r="E22" s="8"/>
-      <c r="G22" s="23"/>
+      <c r="G22" s="26"/>
       <c r="H22" s="24"/>
       <c r="I22" s="25"/>
     </row>
@@ -1899,7 +1945,7 @@
       <c r="C23" s="7"/>
       <c r="D23" s="2"/>
       <c r="E23" s="8"/>
-      <c r="G23" s="23"/>
+      <c r="G23" s="26"/>
       <c r="H23" s="24"/>
       <c r="I23" s="25"/>
     </row>
@@ -1908,7 +1954,7 @@
       <c r="C24" s="7"/>
       <c r="D24" s="2"/>
       <c r="E24" s="8"/>
-      <c r="G24" s="23"/>
+      <c r="G24" s="26"/>
       <c r="H24" s="24"/>
       <c r="I24" s="25"/>
     </row>
@@ -1917,7 +1963,7 @@
       <c r="C25" s="7"/>
       <c r="D25" s="2"/>
       <c r="E25" s="8"/>
-      <c r="G25" s="23"/>
+      <c r="G25" s="26"/>
       <c r="H25" s="24"/>
       <c r="I25" s="25"/>
     </row>
@@ -1926,7 +1972,7 @@
       <c r="C26" s="7"/>
       <c r="D26" s="2"/>
       <c r="E26" s="8"/>
-      <c r="G26" s="23"/>
+      <c r="G26" s="26"/>
       <c r="H26" s="24"/>
       <c r="I26" s="25"/>
     </row>
@@ -1935,7 +1981,7 @@
       <c r="C27" s="7"/>
       <c r="D27" s="2"/>
       <c r="E27" s="8"/>
-      <c r="G27" s="23"/>
+      <c r="G27" s="26"/>
       <c r="H27" s="24"/>
       <c r="I27" s="25"/>
     </row>
@@ -1944,7 +1990,7 @@
       <c r="C28" s="7"/>
       <c r="D28" s="2"/>
       <c r="E28" s="8"/>
-      <c r="G28" s="23"/>
+      <c r="G28" s="26"/>
       <c r="H28" s="24"/>
       <c r="I28" s="25"/>
     </row>
@@ -1953,7 +1999,7 @@
       <c r="C29" s="7"/>
       <c r="D29" s="2"/>
       <c r="E29" s="8"/>
-      <c r="G29" s="23"/>
+      <c r="G29" s="26"/>
       <c r="H29" s="24"/>
       <c r="I29" s="25"/>
     </row>
@@ -1962,7 +2008,7 @@
       <c r="C30" s="7"/>
       <c r="D30" s="2"/>
       <c r="E30" s="8"/>
-      <c r="G30" s="23"/>
+      <c r="G30" s="26"/>
       <c r="H30" s="24"/>
       <c r="I30" s="25"/>
     </row>
@@ -1971,7 +2017,7 @@
       <c r="C31" s="7"/>
       <c r="D31" s="2"/>
       <c r="E31" s="8"/>
-      <c r="G31" s="23"/>
+      <c r="G31" s="26"/>
       <c r="H31" s="24"/>
       <c r="I31" s="25"/>
     </row>
@@ -1980,7 +2026,7 @@
       <c r="C32" s="7"/>
       <c r="D32" s="2"/>
       <c r="E32" s="8"/>
-      <c r="G32" s="23"/>
+      <c r="G32" s="26"/>
       <c r="H32" s="24"/>
       <c r="I32" s="25"/>
     </row>
@@ -1989,7 +2035,7 @@
       <c r="C33" s="7"/>
       <c r="D33" s="2"/>
       <c r="E33" s="8"/>
-      <c r="G33" s="23"/>
+      <c r="G33" s="26"/>
       <c r="H33" s="24"/>
       <c r="I33" s="25"/>
     </row>
@@ -1998,7 +2044,7 @@
       <c r="C34" s="7"/>
       <c r="D34" s="2"/>
       <c r="E34" s="8"/>
-      <c r="G34" s="23"/>
+      <c r="G34" s="26"/>
       <c r="H34" s="24"/>
       <c r="I34" s="25"/>
     </row>
@@ -2007,7 +2053,7 @@
       <c r="C35" s="7"/>
       <c r="D35" s="2"/>
       <c r="E35" s="8"/>
-      <c r="G35" s="23"/>
+      <c r="G35" s="26"/>
       <c r="H35" s="24"/>
       <c r="I35" s="25"/>
     </row>
@@ -2016,7 +2062,7 @@
       <c r="C36" s="7"/>
       <c r="D36" s="2"/>
       <c r="E36" s="8"/>
-      <c r="G36" s="23"/>
+      <c r="G36" s="26"/>
       <c r="H36" s="24"/>
       <c r="I36" s="25"/>
     </row>
@@ -2025,7 +2071,7 @@
       <c r="C37" s="7"/>
       <c r="D37" s="2"/>
       <c r="E37" s="8"/>
-      <c r="G37" s="23"/>
+      <c r="G37" s="26"/>
       <c r="H37" s="24"/>
       <c r="I37" s="25"/>
     </row>
@@ -2034,7 +2080,7 @@
       <c r="C38" s="7"/>
       <c r="D38" s="2"/>
       <c r="E38" s="8"/>
-      <c r="G38" s="23"/>
+      <c r="G38" s="26"/>
       <c r="H38" s="24"/>
       <c r="I38" s="25"/>
     </row>
@@ -2043,7 +2089,7 @@
       <c r="C39" s="7"/>
       <c r="D39" s="2"/>
       <c r="E39" s="8"/>
-      <c r="G39" s="23"/>
+      <c r="G39" s="26"/>
       <c r="H39" s="24"/>
       <c r="I39" s="25"/>
     </row>
@@ -2052,7 +2098,7 @@
       <c r="C40" s="7"/>
       <c r="D40" s="2"/>
       <c r="E40" s="8"/>
-      <c r="G40" s="23"/>
+      <c r="G40" s="26"/>
       <c r="H40" s="24"/>
       <c r="I40" s="25"/>
     </row>
@@ -2061,7 +2107,7 @@
       <c r="C41" s="7"/>
       <c r="D41" s="2"/>
       <c r="E41" s="8"/>
-      <c r="G41" s="23"/>
+      <c r="G41" s="26"/>
       <c r="H41" s="24"/>
       <c r="I41" s="25"/>
     </row>
@@ -2070,7 +2116,7 @@
       <c r="C42" s="7"/>
       <c r="D42" s="2"/>
       <c r="E42" s="8"/>
-      <c r="G42" s="23"/>
+      <c r="G42" s="26"/>
       <c r="H42" s="24"/>
       <c r="I42" s="25"/>
     </row>
@@ -2079,7 +2125,7 @@
       <c r="C43" s="7"/>
       <c r="D43" s="2"/>
       <c r="E43" s="8"/>
-      <c r="G43" s="23"/>
+      <c r="G43" s="26"/>
       <c r="H43" s="24"/>
       <c r="I43" s="25"/>
     </row>
@@ -2088,7 +2134,7 @@
       <c r="C44" s="7"/>
       <c r="D44" s="2"/>
       <c r="E44" s="8"/>
-      <c r="G44" s="23"/>
+      <c r="G44" s="26"/>
       <c r="H44" s="24"/>
       <c r="I44" s="25"/>
     </row>
@@ -2097,7 +2143,7 @@
       <c r="C45" s="7"/>
       <c r="D45" s="2"/>
       <c r="E45" s="8"/>
-      <c r="G45" s="23"/>
+      <c r="G45" s="26"/>
       <c r="H45" s="24"/>
       <c r="I45" s="25"/>
     </row>
@@ -2106,7 +2152,7 @@
       <c r="C46" s="7"/>
       <c r="D46" s="2"/>
       <c r="E46" s="8"/>
-      <c r="G46" s="23"/>
+      <c r="G46" s="26"/>
       <c r="H46" s="24"/>
       <c r="I46" s="25"/>
     </row>
@@ -2115,7 +2161,7 @@
       <c r="C47" s="7"/>
       <c r="D47" s="2"/>
       <c r="E47" s="8"/>
-      <c r="G47" s="23"/>
+      <c r="G47" s="26"/>
       <c r="H47" s="24"/>
       <c r="I47" s="25"/>
     </row>
@@ -2124,7 +2170,7 @@
       <c r="C48" s="7"/>
       <c r="D48" s="2"/>
       <c r="E48" s="8"/>
-      <c r="G48" s="23"/>
+      <c r="G48" s="26"/>
       <c r="H48" s="24"/>
       <c r="I48" s="25"/>
     </row>
@@ -2133,7 +2179,7 @@
       <c r="C49" s="7"/>
       <c r="D49" s="2"/>
       <c r="E49" s="8"/>
-      <c r="G49" s="23"/>
+      <c r="G49" s="26"/>
       <c r="H49" s="24"/>
       <c r="I49" s="25"/>
     </row>
@@ -2142,9 +2188,9 @@
       <c r="C50" s="17"/>
       <c r="D50" s="5"/>
       <c r="E50" s="18"/>
-      <c r="G50" s="26"/>
-      <c r="H50" s="27"/>
-      <c r="I50" s="28"/>
+      <c r="G50" s="27"/>
+      <c r="H50" s="28"/>
+      <c r="I50" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/やることリスト.xlsx
+++ b/やることリスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\DATA\00_School\01_Game\00_Git\Act_OneMonth\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB4AB90-E86A-4712-B89D-5AC1D1D70B25}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDE85FA6-465A-47AA-89E1-D33E6F8CFC9B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1566,7 +1566,7 @@
   <dimension ref="B1:I50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1759,7 +1759,7 @@
     </row>
     <row r="11" spans="2:9" ht="18.600000000000001" thickTop="1">
       <c r="B11" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>14</v>

--- a/やることリスト.xlsx
+++ b/やることリスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\DATA\00_School\01_Game\00_Git\Act_OneMonth\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDE85FA6-465A-47AA-89E1-D33E6F8CFC9B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4212B706-62C4-41D9-8A4B-1252200BC478}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1566,7 +1566,7 @@
   <dimension ref="B1:I50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1599,7 +1599,7 @@
       <c r="D3" s="35"/>
       <c r="E3" s="22">
         <f>COUNTIF(B5:B50, "完了") / COUNTA(B5:B50)</f>
-        <v>0.2</v>
+        <v>0.26666666666666666</v>
       </c>
       <c r="G3" s="13" t="s">
         <v>0</v>
@@ -1659,7 +1659,7 @@
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>15</v>
@@ -1726,7 +1726,7 @@
     </row>
     <row r="9" spans="2:9" ht="18.600000000000001" thickBot="1">
       <c r="B9" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>15</v>
@@ -1740,7 +1740,7 @@
     </row>
     <row r="10" spans="2:9" ht="18.600000000000001" thickBot="1">
       <c r="B10" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>15</v>
@@ -1759,7 +1759,7 @@
     </row>
     <row r="11" spans="2:9" ht="18.600000000000001" thickTop="1">
       <c r="B11" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>14</v>
@@ -2236,7 +2236,7 @@
   <dimension ref="B2:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>

--- a/やることリスト.xlsx
+++ b/やることリスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\DATA\00_School\01_Game\00_Git\Act_OneMonth\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4212B706-62C4-41D9-8A4B-1252200BC478}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B95E8D00-CFB9-4571-9EA1-5EBDE67A5C9D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1566,7 +1566,7 @@
   <dimension ref="B1:I50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>

--- a/やることリスト.xlsx
+++ b/やることリスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\DATA\00_School\01_Game\00_Git\Act_OneMonth\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B95E8D00-CFB9-4571-9EA1-5EBDE67A5C9D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9CD08FC-7DE6-42A6-9054-22E5F63FCFC0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="56">
   <si>
     <t>進捗</t>
     <rPh sb="0" eb="2">
@@ -620,6 +620,10 @@
     <rPh sb="157" eb="158">
       <t>タオ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイループやりたいな…</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1566,7 +1570,7 @@
   <dimension ref="B1:I50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1599,7 +1603,7 @@
       <c r="D3" s="35"/>
       <c r="E3" s="22">
         <f>COUNTIF(B5:B50, "完了") / COUNTA(B5:B50)</f>
-        <v>0.26666666666666666</v>
+        <v>0.25</v>
       </c>
       <c r="G3" s="13" t="s">
         <v>0</v>
@@ -1914,10 +1918,18 @@
       <c r="I19" s="25"/>
     </row>
     <row r="20" spans="2:9">
-      <c r="B20" s="6"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="8"/>
+      <c r="B20" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>26</v>
+      </c>
       <c r="G20" s="26"/>
       <c r="H20" s="24"/>
       <c r="I20" s="25"/>

--- a/やることリスト.xlsx
+++ b/やることリスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\DATA\00_School\01_Game\00_Git\Act_OneMonth\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9CD08FC-7DE6-42A6-9054-22E5F63FCFC0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1106061-1FAF-43F9-AD4B-39540E473CEE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1570,7 +1570,7 @@
   <dimension ref="B1:I50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1603,7 +1603,7 @@
       <c r="D3" s="35"/>
       <c r="E3" s="22">
         <f>COUNTIF(B5:B50, "完了") / COUNTA(B5:B50)</f>
-        <v>0.25</v>
+        <v>0.3125</v>
       </c>
       <c r="G3" s="13" t="s">
         <v>0</v>
@@ -1744,7 +1744,7 @@
     </row>
     <row r="10" spans="2:9" ht="18.600000000000001" thickBot="1">
       <c r="B10" s="6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>15</v>

--- a/やることリスト.xlsx
+++ b/やることリスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\DATA\00_School\01_Game\00_Git\Act_OneMonth\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1106061-1FAF-43F9-AD4B-39540E473CEE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A95713E-786B-483C-AF63-512C3DA77CFF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1570,7 +1570,7 @@
   <dimension ref="B1:I50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
